--- a/spreadsheets/Yorick.xlsx
+++ b/spreadsheets/Yorick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A6FD7-85DB-4467-8A76-34FF6EB78AE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE675E9-900D-40CA-99EF-45074521A0E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Champion</t>
   </si>
@@ -41,33 +41,21 @@
     <t>Yorick</t>
   </si>
   <si>
-    <t>Hey! Thank you so much for contributing.</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>Please don't change id/name (B1/B2) cells.</t>
-  </si>
-  <si>
     <t>contributor</t>
   </si>
   <si>
     <t>Z3Sleeper</t>
   </si>
   <si>
-    <t>For contributor, enter the name you would like to be refered to as.</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
     <t>Aatrox's ultimate fears non-champion units on cast including Yorick's Mist Walkers and Maiden.</t>
   </si>
   <si>
-    <t>For socials, enter URLs for your desired links.</t>
-  </si>
-  <si>
     <t>twitch</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>Illaoi</t>
   </si>
   <si>
-    <t>If you don't have a social, feel free to omit it.</t>
-  </si>
-  <si>
     <t>Pre-6, try to dodge her E's but if she pulls your soul while you have graves up just all-in her while dodging any nearby tentacles. If she uses her ultimate on your soul, just walk out of the range, do not try to fight Illaoi during her ult. Illaoi's W is an auto-reset which allows her to instantly break your W below rank 3.</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
     <t>Don't fight her until level 3+. Avoid her Q when you all-in, as she can break your wall with her auto-reset and is too fast to catch if you're slowed. Kayle's E is an auto-reset which allows her to instantly break your W below rank 3.</t>
   </si>
   <si>
-    <t>If you have another link, add it to the bottom (for example, Facebook)</t>
-  </si>
-  <si>
     <t>Kled</t>
   </si>
   <si>
@@ -188,9 +170,6 @@
     <t>Kled cannot dash through your wall unless he hits you with the dash, so try to stay outside the edge and hit him from there. Keep track of Kled's W when he hits minions, once it is on CD you can look for an easy trade.</t>
   </si>
   <si>
-    <t>For op.gg, you can also link a multi op.gg</t>
-  </si>
-  <si>
     <t>Lucian</t>
   </si>
   <si>
@@ -200,9 +179,6 @@
     <t>Don't be afraid to run him down post-3. He's actually not that mobile early on so you can trap him with wall and you definitely outdamage him with Mist Walkers. Lucian's passive allows him to quickly break your W.</t>
   </si>
   <si>
-    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
-  </si>
-  <si>
     <t>Malphite</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
     <t>portrait</t>
   </si>
   <si>
-    <t>Portrait can be anything you want, it doesn't have to be an irl picture.</t>
-  </si>
-  <si>
     <t>Maokai</t>
   </si>
   <si>
@@ -245,27 +218,15 @@
     <t>Kite out Nasus' ultimate. You typically cannot directly fight him during it so utilize your W to juke around as much as possible to waste his ult's duration before retaliating. Nasus' Q is an auto-reset which allows him to instantly break your W below rank 3.</t>
   </si>
   <si>
-    <t>After the site launches, any of this information can be changed.</t>
-  </si>
-  <si>
     <t>Olaf</t>
   </si>
   <si>
-    <t>Once you have filled this out, please change sheets at the bottom.</t>
-  </si>
-  <si>
     <t>Keep your distance pre-3, as one axe hit can mean your death or flash.</t>
   </si>
   <si>
-    <t>Sample of what it will look like on the website</t>
-  </si>
-  <si>
     <t>Ornn</t>
   </si>
   <si>
-    <t>Metadata guide</t>
-  </si>
-  <si>
     <t>Be aware he can break your wall with his charge and it will knockup both your Mist Walkers and you if you stand too close. Still use it to trap him though, as it forces him to waste his high-damaging E on breaking your wall instead of you.</t>
   </si>
   <si>
@@ -450,13 +411,19 @@
   </si>
   <si>
     <t>He can eat your rank 1 Maiden outright, try to keep her at a safe distance. Cho'Gath's passive allows him to heal off killing your Mist Walkers, so only summon them when you'll do enough damage to make it worth it. Cho 'Gath's E is an auto-reset which allows him to instantly break your W below rank 3.</t>
+  </si>
+  <si>
+    <t>general comments</t>
+  </si>
+  <si>
+    <t>Start Doran's Shield against ranged matchups. Unless otherwise specificed, post 3 you should all in with full combo whenever you get the chance (E, spawn mist walkers, w, Q + autos). There are many champs that beat you in a 1v1, you want to kite them with W and let mist walkers/maiden whittle them down as much as possible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +485,27 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -540,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -550,6 +538,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,79 +558,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5248275" cy="2409825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7200900" cy="3390900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,13 +760,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
@@ -861,139 +780,311 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1970,7 +2061,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1978,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2010,512 +2100,512 @@
         <v>3.5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>4.5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>5.5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>4.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>7.5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4">
         <v>6.5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4">
         <v>9.5</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4">
         <v>4.5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4">
         <v>4.5</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4">
         <v>4.5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4">
         <v>5.5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B24" s="4">
         <v>4.5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4">
         <v>6.5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B26" s="4">
         <v>5.5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4">
         <v>4.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B28" s="4">
         <v>4.5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B30" s="4">
         <v>7.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4">
         <v>5.5</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4">
         <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B34" s="4">
         <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B35" s="4">
         <v>4.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4">
         <v>3.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4">
         <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4">
         <v>4.5</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4">
         <v>4.5</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4">
         <v>8.5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4">
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4">
         <v>4.5</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4">
         <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B45" s="4">
         <v>6.5</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4">
         <v>3.5</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B47" s="4">
         <v>6.5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2524,85 +2614,85 @@
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/spreadsheets/Yorick.xlsx
+++ b/spreadsheets/Yorick.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE675E9-900D-40CA-99EF-45074521A0E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDAD7FA-3BE8-4068-9DA3-1AFF39A01F45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Champion</t>
   </si>
@@ -353,61 +353,10 @@
     <t>Try to keep yourself and your summons in front of Yasuo when engaging so you don't give him a free dash out. Wind Wall can block your E, but it cannot block the splash area of your E, so hit him with the edge of the ability so he can't block it.</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>In almost all matchups, Yorick should be played safe/defensively levels 1-2 and can only played offensively post-3.</t>
-  </si>
-  <si>
-    <t>Start Doran's Shield + Health Potion against all ranged matchups.</t>
-  </si>
-  <si>
-    <t>Never spawn Mist Walkers while an enemy champion is nearby unless you land E. Landing the mark before summoning mist walkers will cause them to instantly jump after spawn.</t>
-  </si>
-  <si>
-    <t>Unless otherwise specified per matchup, post-3 you should all-in with your full combo whenever you get the chance. (E -&gt; spawn Mist Walkers -&gt; W -&gt; Q's and autos)</t>
-  </si>
-  <si>
-    <t>Remember you can use your Q to trade in lane, you don't have to use it exclusively for creating graves.</t>
-  </si>
-  <si>
-    <t>Never use W on a champion with a terrain-traversing mobility spell until they have used it.</t>
-  </si>
-  <si>
-    <t>When you W an enemy and you're sure you can kill them, position behind them while they are trapped to ensure they can't escape.</t>
-  </si>
-  <si>
-    <t>When being chased, place your W entirely in front of the enemy and close to a wall, forcing them to walk completely around it to get to you.</t>
-  </si>
-  <si>
-    <t>W can be used to tank a turret shot during pushes. Useful for keeping the Maiden alive/healthier since it will prioritize the wall over her.</t>
-  </si>
-  <si>
-    <t>W can be used to stall an incoming wave if it is too much to tank and you want to set up a freeze.</t>
-  </si>
-  <si>
-    <t>Try to keep your Maiden alive as long as possible because she has an extremely long cooldown and is crucial to Yorick's gameplay post-6.</t>
-  </si>
-  <si>
-    <t>You can use the Maiden as a ranged farming/harass tool by simply turning your character model around since the Maiden stays a set distance behind Yorick based on the direction he's facing. (This is how you control the Maiden in general)</t>
-  </si>
-  <si>
-    <t>Canon minions are always prioritized by turrets over the Maiden, so use them as a chance to smack turrets down.</t>
-  </si>
-  <si>
-    <t>Yorick can proxy lanes extremely well when Maiden is up. Do this if you're in a low-interaction and low-threat lane and when the enemy mid/jungle aren't near topside. Always leave the last 3 caster minions for your Mist Walkers to finish off so you can start moving sooner to avoid potential ganks. You can even poach camps while you're at it.</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/M1V3jhJ.jpg</t>
   </si>
   <si>
     <t>If a Singed tries to proxy you, don't chase after him, just farm the wave and use Mist Walkers as pseudo-minions. Minions will prioritize you over the Mist Walkers however, so after spawning them duck into a bush to avoid aggro and only pop out for Q last hits.</t>
-  </si>
-  <si>
-    <t>There are many champions who beat you in a straight fight. Against these champions you want to kite them with W and let Mist Walkers and Maiden whittle them down as much as possible.</t>
-  </si>
-  <si>
-    <t>W can break channeled abilities such as Teleport, Shen's Ultimate and TF's Ultimate.</t>
   </si>
   <si>
     <t>He can eat your rank 1 Maiden outright, try to keep her at a safe distance. Cho'Gath's passive allows him to heal off killing your Mist Walkers, so only summon them when you'll do enough damage to make it worth it. Cho 'Gath's E is an auto-reset which allows him to instantly break your W below rank 3.</t>
@@ -423,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,14 +409,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -535,13 +476,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -835,7 +776,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2"/>
@@ -880,7 +821,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -891,11 +832,11 @@
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>125</v>
+      <c r="B9" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -906,11 +847,11 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -925,7 +866,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -933,152 +874,152 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>130</v>
+      <c r="A12" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2068,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:H67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2037,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>3.5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2123,7 +2064,7 @@
       <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2"/>
@@ -2135,8 +2076,8 @@
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>129</v>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -2180,10 +2121,10 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>7.5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="2"/>
@@ -2207,7 +2148,7 @@
       <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="2"/>
@@ -2241,7 +2182,7 @@
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2263,7 +2204,7 @@
       <c r="B16" s="4">
         <v>9.5</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2274,7 +2215,7 @@
       <c r="B17" s="4">
         <v>4.5</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2285,7 +2226,7 @@
       <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2307,7 +2248,7 @@
       <c r="B20" s="4">
         <v>4.5</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2318,7 +2259,7 @@
       <c r="B21" s="4">
         <v>4.5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2351,7 +2292,7 @@
       <c r="B24" s="4">
         <v>4.5</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2428,7 +2369,7 @@
       <c r="B31" s="4">
         <v>5.5</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2484,7 +2425,7 @@
         <v>3.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2516,7 +2457,7 @@
       <c r="B39" s="4">
         <v>4.5</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2527,7 +2468,7 @@
       <c r="B40" s="4">
         <v>4.5</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2560,7 +2501,7 @@
       <c r="B43" s="4">
         <v>4.5</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2582,7 +2523,7 @@
       <c r="B45" s="4">
         <v>6.5</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2593,7 +2534,7 @@
       <c r="B46" s="4">
         <v>3.5</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2609,91 +2550,42 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="7" t="s">
-        <v>121</v>
-      </c>
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
